--- a/data/chili_data.xlsx
+++ b/data/chili_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -953,6 +953,42 @@
         <v>7.212273504252019</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>15-11-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>13:56:46</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>500</v>
+      </c>
+      <c r="D15" t="n">
+        <v>50.98039215686274</v>
+      </c>
+      <c r="E15" t="n">
+        <v>48.95768049103419</v>
+      </c>
+      <c r="F15" t="n">
+        <v>100.1078725086106</v>
+      </c>
+      <c r="G15" t="n">
+        <v>93.9260689926286</v>
+      </c>
+      <c r="H15" t="n">
+        <v>196.6780701358234</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.9672562156218795</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8.168120452399371</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
